--- a/medicine/Psychotrope/Ampélographie._Traité_général_de_viticulture/Ampélographie._Traité_général_de_viticulture.xlsx
+++ b/medicine/Psychotrope/Ampélographie._Traité_général_de_viticulture/Ampélographie._Traité_général_de_viticulture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amp%C3%A9lographie._Trait%C3%A9_g%C3%A9n%C3%A9ral_de_viticulture</t>
+          <t>Ampélographie._Traité_général_de_viticulture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Ampélographie. Traité général de viticulture, dite aussi Ampélographie Viala et Vermorel, est un ouvrage monumental, en sept volumes, édité entre 1901 et 1910 qui décrit 5 200 cépages et en illustre plus de 500.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amp%C3%A9lographie._Trait%C3%A9_g%C3%A9n%C3%A9ral_de_viticulture</t>
+          <t>Ampélographie._Traité_général_de_viticulture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Les auteurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ouvrage a été publié sous la direction Pierre Viala (1859-1936), inspecteur général de viticulture, en collaboration avec Victor Vermorel (1848-1927), industriel, qui en assura le secrétariat général. Ils réunirent autour d'eux quatre-vingt-cinq autres contributeurs[1], dont A. Bacon, A. Barbier, L. Belle, pour la rédaction et J. B. Drouot, Henri Gillet, Alexis Kreÿder et Jules Troncy, pour les illustrations[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ouvrage a été publié sous la direction Pierre Viala (1859-1936), inspecteur général de viticulture, en collaboration avec Victor Vermorel (1848-1927), industriel, qui en assura le secrétariat général. Ils réunirent autour d'eux quatre-vingt-cinq autres contributeurs, dont A. Bacon, A. Barbier, L. Belle, pour la rédaction et J. B. Drouot, Henri Gillet, Alexis Kreÿder et Jules Troncy, pour les illustrations.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amp%C3%A9lographie._Trait%C3%A9_g%C3%A9n%C3%A9ral_de_viticulture</t>
+          <t>Ampélographie._Traité_général_de_viticulture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>L'ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette ampélographie compte sept volumes, dont la parution s’est étalée entre 1901 et 1910[1], l'édition ayant été assurée par Masson et Compagnie, à Paris[2].
-Le volume I traite de l'ampélographie générale et les II à VI de l'ampélographie spécialisée. Le volume VII est un dictionnaire ampélographique[2].
-Les notes bibliographiques et la bibliographie sont regroupées au volume VII. Il existe un index à la fin de chaque volume et index général au VI[2].
-Les sept volumes comptent en tout 3 200 pages comprenant 500 planches en couleur, 70 planches en noir et 840 gravures en noir. Ils décrivent 5 200 cépages et recensent une liste de 24 000 noms[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette ampélographie compte sept volumes, dont la parution s’est étalée entre 1901 et 1910, l'édition ayant été assurée par Masson et Compagnie, à Paris.
+Le volume I traite de l'ampélographie générale et les II à VI de l'ampélographie spécialisée. Le volume VII est un dictionnaire ampélographique.
+Les notes bibliographiques et la bibliographie sont regroupées au volume VII. Il existe un index à la fin de chaque volume et index général au VI.
+Les sept volumes comptent en tout 3 200 pages comprenant 500 planches en couleur, 70 planches en noir et 840 gravures en noir. Ils décrivent 5 200 cépages et recensent une liste de 24 000 noms.
 			Alicante Bouschet.
 			Dattier de Beyrouth.
 			Genouillet.
